--- a/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/time-appliances+energy+prediction_0.95_iters_staticpr=10000.xlsx
+++ b/experiments/appliances+energy+prediction/energydata_complete.csv/0.95appliances+energy+prediction/time-appliances+energy+prediction_0.95_iters_staticpr=10000.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01595783233642578</v>
+        <v>0.02094864845275879</v>
       </c>
       <c r="C2" t="n">
-        <v>4.69853138923645</v>
+        <v>5.2716383934021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5985502600669861</v>
+        <v>1.471328926086426</v>
       </c>
       <c r="E2" t="n">
-        <v>3.203461408615112</v>
+        <v>6.749965747197469</v>
       </c>
       <c r="F2" t="n">
-        <v>2.030764857927958</v>
+        <v>2.288232684135437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1175193389256795</v>
+        <v>0.1050593852996826</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.006981611251831055</v>
       </c>
       <c r="C3" t="n">
-        <v>5.184055089950562</v>
+        <v>5.146052598953247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6213385760784149</v>
+        <v>1.455710291862488</v>
       </c>
       <c r="E3" t="n">
-        <v>3.041879177093506</v>
+        <v>6.768914898236592</v>
       </c>
       <c r="F3" t="n">
-        <v>2.038402358690897</v>
+        <v>2.267964998881022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1053901513417562</v>
+        <v>0.1047124067942301</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003988981246948242</v>
+        <v>0.003989696502685547</v>
       </c>
       <c r="C4" t="n">
-        <v>4.388710498809814</v>
+        <v>4.357427358627319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6500948667526245</v>
+        <v>1.379964590072632</v>
       </c>
       <c r="E4" t="n">
-        <v>3.065831899642944</v>
+        <v>6.96106743812561</v>
       </c>
       <c r="F4" t="n">
-        <v>2.01612655321757</v>
+        <v>2.074127395947774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1050533850987752</v>
+        <v>0.1040554841359456</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02593064308166504</v>
+        <v>0.002992391586303711</v>
       </c>
       <c r="C5" t="n">
-        <v>4.612615823745728</v>
+        <v>4.483080148696899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6228344738483429</v>
+        <v>1.313077461719513</v>
       </c>
       <c r="E5" t="n">
-        <v>2.912240028381348</v>
+        <v>7.112078110376994</v>
       </c>
       <c r="F5" t="n">
-        <v>1.953134258588155</v>
+        <v>1.955582459767659</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1058886448542277</v>
+        <v>0.1027262210845947</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="C6" t="n">
-        <v>4.706443309783936</v>
+        <v>4.71817421913147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6685028791427612</v>
+        <v>1.380688695907593</v>
       </c>
       <c r="E6" t="n">
-        <v>3.178498506546021</v>
+        <v>7.661064036687216</v>
       </c>
       <c r="F6" t="n">
-        <v>1.979393005371094</v>
+        <v>1.960113048553467</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1065483093261719</v>
+        <v>0.1052189270655314</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005985260009765625</v>
+        <v>0.003989458084106445</v>
       </c>
       <c r="C7" t="n">
-        <v>4.533302068710327</v>
+        <v>4.692984580993652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6956511636575063</v>
+        <v>1.415621264775594</v>
       </c>
       <c r="E7" t="n">
-        <v>3.015933990478516</v>
+        <v>8.036303771866692</v>
       </c>
       <c r="F7" t="n">
-        <v>1.990695158640544</v>
+        <v>1.99286421140035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1052225430806478</v>
+        <v>0.1027285655339559</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04388236999511719</v>
+        <v>0.002991676330566406</v>
       </c>
       <c r="C8" t="n">
-        <v>4.71321964263916</v>
+        <v>4.657522201538086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6970689722469875</v>
+        <v>1.441760894230434</v>
       </c>
       <c r="E8" t="n">
-        <v>3.024938583374023</v>
+        <v>8.311265968141102</v>
       </c>
       <c r="F8" t="n">
-        <v>2.015792290369669</v>
+        <v>1.955166061719259</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1065505345662435</v>
+        <v>0.1040558815002441</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002991676330566406</v>
+        <v>0.003989219665527344</v>
       </c>
       <c r="C9" t="n">
-        <v>4.412228584289551</v>
+        <v>4.520019769668579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6969431191682816</v>
+        <v>1.413078546524048</v>
       </c>
       <c r="E9" t="n">
-        <v>2.983023405075073</v>
+        <v>8.534069617589315</v>
       </c>
       <c r="F9" t="n">
-        <v>2.031239072481791</v>
+        <v>1.954955339431763</v>
       </c>
       <c r="G9" t="n">
-        <v>0.104554295539856</v>
+        <v>0.1020609935124715</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003988504409790039</v>
+        <v>0.003987789154052734</v>
       </c>
       <c r="C10" t="n">
-        <v>4.393054723739624</v>
+        <v>4.3625648021698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.698738521999783</v>
+        <v>1.408551894293891</v>
       </c>
       <c r="E10" t="n">
-        <v>3.018925666809082</v>
+        <v>8.735617911374128</v>
       </c>
       <c r="F10" t="n">
-        <v>2.063653548558553</v>
+        <v>2.071820060412089</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1073798735936483</v>
+        <v>0.1036958694458008</v>
       </c>
     </row>
     <row r="11">
@@ -677,22 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002991914749145508</v>
+        <v>0.003989696502685547</v>
       </c>
       <c r="C11" t="n">
-        <v>4.672531366348267</v>
+        <v>4.594362497329712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7450876414775849</v>
+        <v>1.441843919754028</v>
       </c>
       <c r="E11" t="n">
-        <v>2.982024669647217</v>
+        <v>8.916504112879435</v>
       </c>
       <c r="F11" t="n">
-        <v>2.061834732691447</v>
+        <v>1.983212391535441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1052192449569702</v>
+        <v>0.1023933887481689</v>
       </c>
     </row>
     <row r="12">
@@ -700,22 +700,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.003989219665527344</v>
       </c>
       <c r="C12" t="n">
-        <v>4.402148962020874</v>
+        <v>4.547916412353516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7369477098638361</v>
+        <v>1.4215885812586</v>
       </c>
       <c r="E12" t="n">
-        <v>2.995019912719727</v>
+        <v>9.202345472393613</v>
       </c>
       <c r="F12" t="n">
-        <v>1.956622322400411</v>
+        <v>1.976566116015116</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1067143678665161</v>
+        <v>0.1052233775456746</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>0.003989458084106445</v>
       </c>
       <c r="C13" t="n">
-        <v>4.550867557525635</v>
+        <v>4.508585214614868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7426314800977707</v>
+        <v>1.406363880634308</v>
       </c>
       <c r="E13" t="n">
-        <v>2.850404739379883</v>
+        <v>9.377632386154598</v>
       </c>
       <c r="F13" t="n">
-        <v>1.965088367462158</v>
+        <v>1.934182167053223</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1060554583867391</v>
+        <v>0.1028982400894165</v>
       </c>
     </row>
     <row r="14">
@@ -746,22 +746,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.005983352661132812</v>
       </c>
       <c r="C14" t="n">
-        <v>4.207791566848755</v>
+        <v>4.442245960235596</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7495474494420565</v>
+        <v>1.404209837546715</v>
       </c>
       <c r="E14" t="n">
-        <v>2.970057487487793</v>
+        <v>9.560832365965231</v>
       </c>
       <c r="F14" t="n">
-        <v>1.952298084894816</v>
+        <v>1.964097420374552</v>
       </c>
       <c r="G14" t="n">
-        <v>0.10555100440979</v>
+        <v>0.1018998225529989</v>
       </c>
     </row>
     <row r="15">
@@ -769,22 +769,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002991914749145508</v>
+        <v>0.003988981246948242</v>
       </c>
       <c r="C15" t="n">
-        <v>4.197073936462402</v>
+        <v>4.447262048721313</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7489658423832485</v>
+        <v>1.403018484796797</v>
       </c>
       <c r="E15" t="n">
-        <v>3.002968549728394</v>
+        <v>9.732369808923631</v>
       </c>
       <c r="F15" t="n">
-        <v>1.976069728533427</v>
+        <v>1.943492452303569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1063819328943888</v>
+        <v>0.1045512358347575</v>
       </c>
     </row>
     <row r="16">
@@ -792,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.003988981246948242</v>
       </c>
       <c r="C16" t="n">
-        <v>3.842023372650146</v>
+        <v>4.044585227966309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7225392500559489</v>
+        <v>1.359291270573934</v>
       </c>
       <c r="E16" t="n">
-        <v>2.859351873397827</v>
+        <v>9.866629579332139</v>
       </c>
       <c r="F16" t="n">
-        <v>1.973399599393209</v>
+        <v>1.93401841322581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1060491800308228</v>
+        <v>0.1032300392786662</v>
       </c>
     </row>
     <row r="17">
@@ -815,22 +815,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.004987001419067383</v>
       </c>
       <c r="C17" t="n">
-        <v>4.849053859710693</v>
+        <v>4.994973182678223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7170514576137066</v>
+        <v>1.340111914277077</v>
       </c>
       <c r="E17" t="n">
-        <v>2.89226508140564</v>
+        <v>9.947267840305964</v>
       </c>
       <c r="F17" t="n">
-        <v>1.98121698697408</v>
+        <v>1.960778077443441</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1048918962478638</v>
+        <v>0.1023934682210286</v>
       </c>
     </row>
     <row r="18">
@@ -838,22 +838,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00399017333984375</v>
+        <v>0.006981372833251953</v>
       </c>
       <c r="C18" t="n">
-        <v>4.240659475326538</v>
+        <v>4.353829622268677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7033917518223033</v>
+        <v>1.317139221640194</v>
       </c>
       <c r="E18" t="n">
-        <v>2.87331485748291</v>
+        <v>10.01114470350976</v>
       </c>
       <c r="F18" t="n">
-        <v>1.92088774840037</v>
+        <v>1.931031823158264</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1052198012669881</v>
+        <v>0.1025593678156535</v>
       </c>
     </row>
     <row r="19">
@@ -861,22 +861,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07679486274719238</v>
+        <v>0.006981611251831055</v>
       </c>
       <c r="C19" t="n">
-        <v>4.695245027542114</v>
+        <v>4.766972780227661</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6961853835317824</v>
+        <v>1.300414199299283</v>
       </c>
       <c r="E19" t="n">
-        <v>2.889272928237915</v>
+        <v>10.08037229820534</v>
       </c>
       <c r="F19" t="n">
-        <v>1.958437482515971</v>
+        <v>1.923219243685405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1055514017740885</v>
+        <v>0.1023935476938884</v>
       </c>
     </row>
     <row r="20">
@@ -884,22 +884,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00399017333984375</v>
+        <v>0.005984067916870117</v>
       </c>
       <c r="C20" t="n">
-        <v>4.167259454727173</v>
+        <v>4.304453372955322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6862611519662958</v>
+        <v>1.293280925248799</v>
       </c>
       <c r="E20" t="n">
-        <v>2.974070072174072</v>
+        <v>10.13608377858212</v>
       </c>
       <c r="F20" t="n">
-        <v>1.984869122505188</v>
+        <v>1.931522607803345</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1055568854014079</v>
+        <v>0.1030630668004354</v>
       </c>
     </row>
     <row r="21">
@@ -907,22 +907,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05186128616333008</v>
+        <v>0.003988742828369141</v>
       </c>
       <c r="C21" t="n">
-        <v>3.284217119216919</v>
+        <v>3.377601146697998</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6767988234758378</v>
+        <v>1.290156433582306</v>
       </c>
       <c r="E21" t="n">
-        <v>2.89928126335144</v>
+        <v>10.16910321712494</v>
       </c>
       <c r="F21" t="n">
-        <v>1.938996911048889</v>
+        <v>1.909742633501689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1047202746073405</v>
+        <v>0.1025650898615519</v>
       </c>
     </row>
     <row r="22">
@@ -930,22 +930,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.004986763000488281</v>
       </c>
       <c r="C22" t="n">
-        <v>5.196105241775513</v>
+        <v>4.916622400283813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6675919322740465</v>
+        <v>1.274692208426339</v>
       </c>
       <c r="E22" t="n">
-        <v>2.976041078567505</v>
+        <v>10.21881383562845</v>
       </c>
       <c r="F22" t="n">
-        <v>1.925865173339844</v>
+        <v>1.941991567611694</v>
       </c>
       <c r="G22" t="n">
-        <v>0.106719692548116</v>
+        <v>0.1022270123163859</v>
       </c>
     </row>
     <row r="23">
@@ -953,22 +953,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.009971857070922852</v>
       </c>
       <c r="C23" t="n">
-        <v>5.711723327636719</v>
+        <v>4.368119716644287</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6559156802567568</v>
+        <v>1.255220140110363</v>
       </c>
       <c r="E23" t="n">
-        <v>2.844392061233521</v>
+        <v>10.24868258562955</v>
       </c>
       <c r="F23" t="n">
-        <v>1.922383745511373</v>
+        <v>1.917883316675822</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1057175795237223</v>
+        <v>0.1025720040003459</v>
       </c>
     </row>
     <row r="24">
@@ -976,22 +976,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.002992391586303711</v>
       </c>
       <c r="C24" t="n">
-        <v>5.179179906845093</v>
+        <v>4.744624614715576</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6492456638294718</v>
+        <v>1.2474986905637</v>
       </c>
       <c r="E24" t="n">
-        <v>3.074776649475098</v>
+        <v>10.17977641630864</v>
       </c>
       <c r="F24" t="n">
-        <v>1.934176762898763</v>
+        <v>1.952616969744364</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1050572792689006</v>
+        <v>0.1033955017725627</v>
       </c>
     </row>
     <row r="25">
@@ -999,22 +999,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08976054191589355</v>
+        <v>0.003989458084106445</v>
       </c>
       <c r="C25" t="n">
-        <v>4.361337184906006</v>
+        <v>4.387925148010254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6393046950300535</v>
+        <v>1.238907055060069</v>
       </c>
       <c r="E25" t="n">
-        <v>3.299500703811646</v>
+        <v>10.17832244104809</v>
       </c>
       <c r="F25" t="n">
-        <v>1.949135939280192</v>
+        <v>1.939172347386678</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1060545047124227</v>
+        <v>0.109384020169576</v>
       </c>
     </row>
     <row r="26">
@@ -1022,22 +1022,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004986286163330078</v>
+        <v>0.003989696502685547</v>
       </c>
       <c r="C26" t="n">
-        <v>4.491055250167847</v>
+        <v>5.865320682525635</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6291865348815918</v>
+        <v>1.221867523193359</v>
       </c>
       <c r="E26" t="n">
-        <v>3.195255756378174</v>
+        <v>10.20066844940185</v>
       </c>
       <c r="F26" t="n">
-        <v>1.938840309778849</v>
+        <v>1.939507563908895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1070470015207926</v>
+        <v>0.1027255058288574</v>
       </c>
     </row>
     <row r="27">
@@ -1045,22 +1045,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.003989934921264648</v>
       </c>
       <c r="C27" t="n">
-        <v>4.007808446884155</v>
+        <v>4.226215839385986</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6339215544553903</v>
+        <v>1.222557559380165</v>
       </c>
       <c r="E27" t="n">
-        <v>3.331091642379761</v>
+        <v>10.21559250966096</v>
       </c>
       <c r="F27" t="n">
-        <v>1.943820476531982</v>
+        <v>1.949147582054138</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1062219937642415</v>
+        <v>0.1028478940327962</v>
       </c>
     </row>
     <row r="28">
@@ -1068,22 +1068,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004986763000488281</v>
+        <v>0.00498652458190918</v>
       </c>
       <c r="C28" t="n">
-        <v>4.642075777053833</v>
+        <v>4.717861413955688</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6386783410001684</v>
+        <v>1.227211477138378</v>
       </c>
       <c r="E28" t="n">
-        <v>3.496649265289307</v>
+        <v>10.20563515027364</v>
       </c>
       <c r="F28" t="n">
-        <v>1.926202098528544</v>
+        <v>1.934844017028809</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1077127456665039</v>
+        <v>0.1037228504816691</v>
       </c>
     </row>
     <row r="29">
@@ -1091,22 +1091,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.003989696502685547</v>
       </c>
       <c r="C29" t="n">
-        <v>3.986331224441528</v>
+        <v>4.117055654525757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6589050676141467</v>
+        <v>1.233806177548</v>
       </c>
       <c r="E29" t="n">
-        <v>2.873343467712402</v>
+        <v>10.15778983490808</v>
       </c>
       <c r="F29" t="n">
-        <v>1.921209971110026</v>
+        <v>2.026597817738851</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1056446631749471</v>
+        <v>0.1015623410542806</v>
       </c>
     </row>
     <row r="30">
@@ -1114,22 +1114,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003989696502685547</v>
+        <v>0.006983041763305664</v>
       </c>
       <c r="C30" t="n">
-        <v>3.672581672668457</v>
+        <v>3.86986255645752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6480146297093096</v>
+        <v>1.218619298934936</v>
       </c>
       <c r="E30" t="n">
-        <v>2.850377798080444</v>
+        <v>10.12066114633933</v>
       </c>
       <c r="F30" t="n">
-        <v>1.988364179929097</v>
+        <v>1.923543334007263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1068811416625977</v>
+        <v>0.1020620266596476</v>
       </c>
     </row>
     <row r="31">
@@ -1137,22 +1137,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.009973764419555664</v>
       </c>
       <c r="C31" t="n">
-        <v>4.138405084609985</v>
+        <v>4.329550981521606</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6389389892419179</v>
+        <v>1.210109249750773</v>
       </c>
       <c r="E31" t="n">
-        <v>2.883289337158203</v>
+        <v>10.08005731370714</v>
       </c>
       <c r="F31" t="n">
-        <v>1.97823174794515</v>
+        <v>1.917894562085469</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1060537497202555</v>
+        <v>0.103224515914917</v>
       </c>
     </row>
     <row r="32">
@@ -1160,22 +1160,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.003989219665527344</v>
       </c>
       <c r="C32" t="n">
-        <v>3.779694318771362</v>
+        <v>3.993562698364258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6362243102442834</v>
+        <v>1.206873403056975</v>
       </c>
       <c r="E32" t="n">
-        <v>2.851403474807739</v>
+        <v>10.03251763056683</v>
       </c>
       <c r="F32" t="n">
-        <v>2.003324468930562</v>
+        <v>1.910593112309774</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1058839162190755</v>
+        <v>0.1025596062342326</v>
       </c>
     </row>
     <row r="33">
@@ -1183,22 +1183,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002992868423461914</v>
+        <v>0.006981611251831055</v>
       </c>
       <c r="C33" t="n">
-        <v>4.364696741104126</v>
+        <v>4.69556713104248</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634349012747407</v>
+        <v>1.207948064804077</v>
       </c>
       <c r="E33" t="n">
-        <v>3.138606071472168</v>
+        <v>9.997143343091011</v>
       </c>
       <c r="F33" t="n">
-        <v>1.942653576533</v>
+        <v>1.956446925799052</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1045586665471395</v>
+        <v>0.1028974453608195</v>
       </c>
     </row>
     <row r="34">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.012716144323349</v>
+        <v>0.005454346537590027</v>
       </c>
       <c r="C34" t="n">
-        <v>4.446313343942165</v>
+        <v>4.525766886770725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6751689745617688</v>
+        <v>1.325703502564119</v>
       </c>
       <c r="E34" t="n">
-        <v>3.013984106481075</v>
+        <v>9.303321678735484</v>
       </c>
       <c r="F34" t="n">
-        <v>1.973847832530737</v>
+        <v>1.975716522584359</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1062366080780824</v>
+        <v>0.1033332844575246</v>
       </c>
     </row>
   </sheetData>
